--- a/src/templates/electrical_load_summary_template.xlsx
+++ b/src/templates/electrical_load_summary_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/devan/Workspace/technogen/eloader/src/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA099236-64A9-264A-844F-628A89B97AA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F02E8D-B6C9-1A4F-A40C-37479A785150}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10540" yWindow="4020" windowWidth="27240" windowHeight="16440" xr2:uid="{4D3DF6C7-46A6-FD4B-BEF8-882170146E27}"/>
   </bookViews>
@@ -118,7 +118,7 @@
     <definedName name="N_A">#REF!</definedName>
     <definedName name="Plant_Areas">'[3]Plant Areas'!$A$3:$A$50</definedName>
     <definedName name="PREPARED_BY">[1]Info!$C$7</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'ELECTRICAL LOAD SUMMARY'!$A$1:$M$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'ELECTRICAL LOAD SUMMARY'!$A$1:$M$19</definedName>
     <definedName name="PROY_CODE">[1]Info!$C$5</definedName>
     <definedName name="PROY_NAME">[1]Info!$C$4</definedName>
     <definedName name="REV">[1]Info!$C$6</definedName>
@@ -183,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>Project:</t>
   </si>
@@ -268,54 +268,15 @@
   <si>
     <t>Design standards reuirements for mandatory spare capacity 25%</t>
   </si>
-  <si>
-    <t xml:space="preserve">Tranformer BoQ &amp; Costing Estimate </t>
-  </si>
-  <si>
-    <t>Transformers required:</t>
-  </si>
-  <si>
-    <t>Qty</t>
-  </si>
-  <si>
-    <t>Each Tx Cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Cost </t>
-  </si>
-  <si>
-    <t>Rating</t>
-  </si>
-  <si>
-    <t>Primary</t>
-  </si>
-  <si>
-    <t>Sec</t>
-  </si>
-  <si>
-    <t>500kVA</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTAL   </t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="166" formatCode="0&quot;V&quot;"/>
-    <numFmt numFmtId="167" formatCode="#,##0.0_);\(#,##0.0\)"/>
-    <numFmt numFmtId="168" formatCode="0&quot;kVA&quot;"/>
-    <numFmt numFmtId="169" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -394,7 +355,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -431,20 +392,8 @@
         <bgColor indexed="9"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="46">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -774,17 +723,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -876,19 +814,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -963,429 +888,233 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyBorder="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="4" applyBorder="1"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="3" applyBorder="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="5" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="5" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="5" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="6" borderId="24" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="6" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="6" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="3" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="3" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="4" fillId="0" borderId="29" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="29" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="29" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="24" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="7" fillId="6" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="3" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="28" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="28" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="28" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="4" applyBorder="1"/>
-    <xf numFmtId="37" fontId="4" fillId="0" borderId="32" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="32" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="32" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="4" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="3" applyBorder="1"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="31" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="31" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="31" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="3" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="4" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="3" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="40" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="38" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="7" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="8" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="35" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="43" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="43" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="7" borderId="43" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="8" borderId="43" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="23" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="36" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="40" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="4" applyBorder="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="29" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="44" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="32" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="32" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyBorder="1"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="29" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="29" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="4" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="4" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="5" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="7" fillId="5" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="7" fillId="5" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="7" fillId="5" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1524,12 +1253,11 @@
       <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2 2" xfId="4" xr:uid="{9165CC89-57EB-2B46-BE0E-BEE79FDFFDFA}"/>
-    <cellStyle name="Normal 4" xfId="3" xr:uid="{68049012-A351-084E-814F-3F913CE56EF3}"/>
-    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{9165CC89-57EB-2B46-BE0E-BEE79FDFFDFA}"/>
+    <cellStyle name="Normal 4" xfId="2" xr:uid="{68049012-A351-084E-814F-3F913CE56EF3}"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -2643,1943 +2371,949 @@
     <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AF508"/>
+  <dimension ref="A1:AF468"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:M1"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="57" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="66.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14" style="3" customWidth="1"/>
-    <col min="8" max="8" width="18.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.5" style="11" customWidth="1"/>
-    <col min="10" max="10" width="19.5" style="3" customWidth="1"/>
-    <col min="11" max="11" width="15.5" style="151" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.33203125" style="150" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.1640625" style="11" customWidth="1"/>
-    <col min="14" max="14" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14" style="4" customWidth="1"/>
-    <col min="16" max="16" width="18.6640625" style="3" customWidth="1"/>
-    <col min="17" max="17" width="9.1640625" style="3" customWidth="1"/>
-    <col min="18" max="16384" width="9.1640625" style="3"/>
+    <col min="1" max="1" width="20.6640625" style="54" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="66.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.5" style="9" customWidth="1"/>
+    <col min="10" max="10" width="19.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" style="87" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.1640625" style="9" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" style="3" customWidth="1"/>
+    <col min="16" max="16" width="18.6640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.1640625" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="154"/>
-      <c r="B1" s="155"/>
-      <c r="C1" s="156"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="164"/>
-      <c r="I1" s="164"/>
-      <c r="J1" s="165"/>
+      <c r="A1" s="91"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="102"/>
       <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="172"/>
-      <c r="M1" s="173"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="110"/>
     </row>
     <row r="2" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="157"/>
-      <c r="B2" s="158"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="5" t="s">
+      <c r="A2" s="94"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="174"/>
-      <c r="M2" s="175"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="112"/>
     </row>
     <row r="3" spans="1:32" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="157"/>
-      <c r="B3" s="158"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="170"/>
-      <c r="I3" s="170"/>
-      <c r="J3" s="171"/>
-      <c r="K3" s="5" t="s">
+      <c r="A3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="174"/>
-      <c r="M3" s="175"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="112"/>
     </row>
     <row r="4" spans="1:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="157"/>
-      <c r="B4" s="158"/>
-      <c r="C4" s="159"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
-      <c r="J4" s="178"/>
-      <c r="K4" s="5" t="s">
+      <c r="A4" s="94"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="185"/>
-      <c r="M4" s="175"/>
+      <c r="L4" s="122"/>
+      <c r="M4" s="112"/>
     </row>
     <row r="5" spans="1:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="157"/>
-      <c r="B5" s="158"/>
-      <c r="C5" s="159"/>
-      <c r="D5" s="179"/>
-      <c r="E5" s="180"/>
-      <c r="F5" s="180"/>
-      <c r="G5" s="180"/>
-      <c r="H5" s="180"/>
-      <c r="I5" s="180"/>
-      <c r="J5" s="181"/>
-      <c r="K5" s="5" t="s">
+      <c r="A5" s="94"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="186"/>
-      <c r="M5" s="187"/>
+      <c r="L5" s="123"/>
+      <c r="M5" s="124"/>
     </row>
     <row r="6" spans="1:32" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="160"/>
-      <c r="B6" s="161"/>
-      <c r="C6" s="162"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="183"/>
-      <c r="F6" s="183"/>
-      <c r="G6" s="183"/>
-      <c r="H6" s="183"/>
-      <c r="I6" s="183"/>
-      <c r="J6" s="184"/>
-      <c r="K6" s="8" t="s">
+      <c r="A6" s="97"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="120"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="188"/>
-      <c r="M6" s="189"/>
+      <c r="L6" s="125"/>
+      <c r="M6" s="126"/>
     </row>
     <row r="7" spans="1:32" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="12"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="14"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="10"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:32" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="153" t="s">
+      <c r="C8" s="15"/>
+      <c r="D8" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="153"/>
-      <c r="F8" s="153" t="s">
+      <c r="E8" s="90"/>
+      <c r="F8" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="153"/>
-      <c r="H8" s="153"/>
-      <c r="I8" s="152" t="s">
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="J8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="20" t="s">
+      <c r="L8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="21" t="s">
+      <c r="M8" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="22"/>
-      <c r="AB8" s="22"/>
-      <c r="AC8" s="22"/>
-      <c r="AD8" s="22"/>
-      <c r="AE8" s="22"/>
-      <c r="AF8" s="22"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="20"/>
+      <c r="AA8" s="20"/>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="20"/>
+      <c r="AD8" s="20"/>
+      <c r="AE8" s="20"/>
+      <c r="AF8" s="20"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="27" t="s">
+      <c r="J9" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="28" t="s">
+      <c r="K9" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="29" t="s">
+      <c r="L9" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="30"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="31"/>
-      <c r="X9" s="31"/>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="31"/>
-      <c r="AA9" s="31"/>
-      <c r="AB9" s="31"/>
-      <c r="AC9" s="31"/>
-      <c r="AD9" s="31"/>
-      <c r="AE9" s="31"/>
-      <c r="AF9" s="31"/>
+      <c r="M9" s="28"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="29"/>
+      <c r="AD9" s="29"/>
+      <c r="AE9" s="29"/>
+      <c r="AF9" s="29"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A10" s="40"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="37"/>
-      <c r="O10" s="3"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="39"/>
-      <c r="W10" s="39"/>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="39"/>
-      <c r="Z10" s="39"/>
-      <c r="AA10" s="39"/>
-      <c r="AB10" s="39"/>
-      <c r="AC10" s="39"/>
-      <c r="AD10" s="39"/>
-      <c r="AE10" s="39"/>
-      <c r="AF10" s="39"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="34"/>
+      <c r="O10" s="2"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="36"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="36"/>
+      <c r="AB10" s="36"/>
+      <c r="AC10" s="36"/>
+      <c r="AD10" s="36"/>
+      <c r="AE10" s="36"/>
+      <c r="AF10" s="36"/>
     </row>
     <row r="11" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="45" t="s">
+      <c r="A11" s="40"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="50"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="47"/>
     </row>
     <row r="12" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="57"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
     </row>
     <row r="13" spans="1:32" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="59"/>
+      <c r="A13" s="56"/>
       <c r="B13"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A14" s="65"/>
-      <c r="B14" s="66" t="s">
+      <c r="A14" s="62"/>
+      <c r="B14" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="67"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="72"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="69"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A15" s="73"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="72"/>
+      <c r="A15" s="70"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="69"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A16" s="73"/>
-      <c r="B16" s="66">
+      <c r="A16" s="70"/>
+      <c r="B16" s="63">
         <f>1+B15</f>
         <v>1</v>
       </c>
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="72"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="69"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A17" s="73"/>
-      <c r="B17" s="66">
+      <c r="A17" s="70"/>
+      <c r="B17" s="63">
         <f>1+B16</f>
         <v>2</v>
       </c>
-      <c r="C17" s="75" t="s">
+      <c r="C17" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="76"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="72"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="69"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A18" s="73"/>
-      <c r="B18" s="66">
+      <c r="A18" s="70"/>
+      <c r="B18" s="63">
         <v>3</v>
       </c>
-      <c r="C18" s="78" t="s">
+      <c r="C18" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="79"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="57"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54"/>
     </row>
     <row r="19" spans="1:17" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="82"/>
-      <c r="B19" s="83">
+      <c r="A19" s="79"/>
+      <c r="B19" s="80">
         <v>4</v>
       </c>
-      <c r="C19" s="84" t="s">
+      <c r="C19" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="87"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="57"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="84"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="54"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A20" s="88"/>
-      <c r="B20" s="88"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="72"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="58"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="57"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A21" s="89"/>
-      <c r="B21" s="88"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="72"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="58"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="57"/>
-    </row>
-    <row r="22" spans="1:17" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="91"/>
-      <c r="B22" s="74"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="92"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="72"/>
-    </row>
-    <row r="23" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="93"/>
-      <c r="B23" s="94"/>
-      <c r="C23" s="95"/>
-      <c r="D23" s="96" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="97"/>
-      <c r="F23" s="97"/>
-      <c r="G23" s="98"/>
-      <c r="H23" s="99" t="s">
-        <v>30</v>
-      </c>
-      <c r="I23" s="100" t="s">
-        <v>31</v>
-      </c>
-      <c r="J23" s="101" t="s">
-        <v>32</v>
-      </c>
-      <c r="K23" s="70"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="72"/>
-      <c r="N23" s="102"/>
-      <c r="O23" s="103"/>
-      <c r="P23" s="104"/>
-    </row>
-    <row r="24" spans="1:17" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="93"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="106" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="107" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" s="108"/>
-      <c r="H24" s="109"/>
-      <c r="I24" s="110"/>
-      <c r="J24" s="111"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="72"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A25" s="93"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="105"/>
-      <c r="D25" s="112">
-        <v>500</v>
-      </c>
-      <c r="E25" s="113">
-        <v>22000</v>
-      </c>
-      <c r="F25" s="113">
-        <v>433</v>
-      </c>
-      <c r="G25" s="114">
-        <v>415</v>
-      </c>
-      <c r="H25" s="115">
-        <f t="shared" ref="H25:H54" si="0">COUNTIFS(L$10:L$11,D25,B$10:B$11,G25)</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="116"/>
-      <c r="J25" s="117"/>
-      <c r="K25" s="70"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="72"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A26" s="93"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="118"/>
-      <c r="D26" s="112">
-        <v>750</v>
-      </c>
-      <c r="E26" s="113">
-        <v>22000</v>
-      </c>
-      <c r="F26" s="113">
-        <v>433</v>
-      </c>
-      <c r="G26" s="114">
-        <v>415</v>
-      </c>
-      <c r="H26" s="115">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="116"/>
-      <c r="J26" s="117"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="72"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A27" s="93"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="118"/>
-      <c r="D27" s="119">
-        <v>1000</v>
-      </c>
-      <c r="E27" s="120">
-        <v>22000</v>
-      </c>
-      <c r="F27" s="120">
-        <v>433</v>
-      </c>
-      <c r="G27" s="41">
-        <v>415</v>
-      </c>
-      <c r="H27" s="115">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="116"/>
-      <c r="J27" s="121"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="71"/>
-      <c r="M27" s="72"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A28" s="93"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="118"/>
-      <c r="D28" s="119">
-        <v>1500</v>
-      </c>
-      <c r="E28" s="120">
-        <v>22000</v>
-      </c>
-      <c r="F28" s="120">
-        <v>433</v>
-      </c>
-      <c r="G28" s="41">
-        <v>415</v>
-      </c>
-      <c r="H28" s="115">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="116"/>
-      <c r="J28" s="121"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="71"/>
-      <c r="M28" s="72"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A29" s="93"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="118"/>
-      <c r="D29" s="119">
-        <v>2000</v>
-      </c>
-      <c r="E29" s="120">
-        <v>22000</v>
-      </c>
-      <c r="F29" s="120">
-        <v>433</v>
-      </c>
-      <c r="G29" s="41">
-        <v>415</v>
-      </c>
-      <c r="H29" s="115">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="116"/>
-      <c r="J29" s="121"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="71"/>
-      <c r="M29" s="72"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A30" s="93"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="118"/>
-      <c r="D30" s="119">
-        <v>2500</v>
-      </c>
-      <c r="E30" s="120">
-        <v>22000</v>
-      </c>
-      <c r="F30" s="120">
-        <v>433</v>
-      </c>
-      <c r="G30" s="41">
-        <v>415</v>
-      </c>
-      <c r="H30" s="115">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="116"/>
-      <c r="J30" s="121"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="71"/>
-      <c r="M30" s="72"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A31" s="93"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="118"/>
-      <c r="D31" s="119">
-        <v>5000</v>
-      </c>
-      <c r="E31" s="120">
-        <v>22000</v>
-      </c>
-      <c r="F31" s="120">
-        <v>433</v>
-      </c>
-      <c r="G31" s="41">
-        <v>415</v>
-      </c>
-      <c r="H31" s="115">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="116"/>
-      <c r="J31" s="121"/>
-      <c r="K31" s="122"/>
-      <c r="L31" s="118"/>
-      <c r="M31" s="123"/>
-      <c r="N31" s="124"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A32" s="93"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="118"/>
-      <c r="D32" s="119">
-        <v>8000</v>
-      </c>
-      <c r="E32" s="120">
-        <v>22000</v>
-      </c>
-      <c r="F32" s="120">
-        <v>433</v>
-      </c>
-      <c r="G32" s="41">
-        <v>415</v>
-      </c>
-      <c r="H32" s="115">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="116"/>
-      <c r="J32" s="121"/>
-      <c r="K32" s="122"/>
-      <c r="L32" s="118"/>
-      <c r="M32" s="123"/>
-      <c r="N32" s="124"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A33" s="93"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="118"/>
-      <c r="D33" s="119">
-        <v>10000</v>
-      </c>
-      <c r="E33" s="120">
-        <v>22000</v>
-      </c>
-      <c r="F33" s="120">
-        <v>433</v>
-      </c>
-      <c r="G33" s="41">
-        <v>415</v>
-      </c>
-      <c r="H33" s="115">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="116"/>
-      <c r="J33" s="121"/>
-      <c r="K33" s="122"/>
-      <c r="L33" s="118"/>
-      <c r="M33" s="123"/>
-      <c r="N33" s="124"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A34" s="93"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="118"/>
-      <c r="D34" s="119">
-        <v>11000</v>
-      </c>
-      <c r="E34" s="120">
-        <v>22000</v>
-      </c>
-      <c r="F34" s="120">
-        <v>433</v>
-      </c>
-      <c r="G34" s="41">
-        <v>415</v>
-      </c>
-      <c r="H34" s="115">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="116"/>
-      <c r="J34" s="121"/>
-      <c r="K34" s="122"/>
-      <c r="L34" s="118"/>
-      <c r="M34" s="123"/>
-      <c r="N34" s="124"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A35" s="93"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="118"/>
-      <c r="D35" s="119" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35" s="120">
-        <v>22000</v>
-      </c>
-      <c r="F35" s="120">
-        <v>6600</v>
-      </c>
-      <c r="G35" s="41">
-        <v>6600</v>
-      </c>
-      <c r="H35" s="115">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="116"/>
-      <c r="J35" s="121"/>
-      <c r="K35" s="122"/>
-      <c r="L35" s="118"/>
-      <c r="M35" s="123"/>
-      <c r="N35" s="124"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A36" s="93"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="118"/>
-      <c r="D36" s="119">
-        <v>750</v>
-      </c>
-      <c r="E36" s="120">
-        <v>22000</v>
-      </c>
-      <c r="F36" s="120">
-        <v>6600</v>
-      </c>
-      <c r="G36" s="41">
-        <v>6600</v>
-      </c>
-      <c r="H36" s="115">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="116"/>
-      <c r="J36" s="121"/>
-      <c r="K36" s="122"/>
-      <c r="L36" s="118"/>
-      <c r="M36" s="123"/>
-      <c r="N36" s="124"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A37" s="93"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="118"/>
-      <c r="D37" s="119">
-        <v>1000</v>
-      </c>
-      <c r="E37" s="120">
-        <v>22000</v>
-      </c>
-      <c r="F37" s="120">
-        <v>6600</v>
-      </c>
-      <c r="G37" s="41">
-        <v>6600</v>
-      </c>
-      <c r="H37" s="115">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I37" s="116"/>
-      <c r="J37" s="121"/>
-      <c r="K37" s="122"/>
-      <c r="L37" s="118"/>
-      <c r="M37" s="123"/>
-      <c r="N37" s="124"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A38" s="93"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="118"/>
-      <c r="D38" s="119">
-        <v>1500</v>
-      </c>
-      <c r="E38" s="120">
-        <v>22000</v>
-      </c>
-      <c r="F38" s="120">
-        <v>6600</v>
-      </c>
-      <c r="G38" s="41">
-        <v>6600</v>
-      </c>
-      <c r="H38" s="115">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I38" s="116"/>
-      <c r="J38" s="121"/>
-      <c r="K38" s="122"/>
-      <c r="L38" s="118"/>
-      <c r="M38" s="123"/>
-      <c r="N38" s="124"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A39" s="93"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="118"/>
-      <c r="D39" s="119">
-        <v>2000</v>
-      </c>
-      <c r="E39" s="120">
-        <v>22000</v>
-      </c>
-      <c r="F39" s="120">
-        <v>6600</v>
-      </c>
-      <c r="G39" s="41">
-        <v>6600</v>
-      </c>
-      <c r="H39" s="115">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I39" s="116"/>
-      <c r="J39" s="121"/>
-      <c r="K39" s="122"/>
-      <c r="L39" s="118"/>
-      <c r="M39" s="122"/>
-      <c r="N39" s="124"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A40" s="93"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="118"/>
-      <c r="D40" s="119">
-        <v>2500</v>
-      </c>
-      <c r="E40" s="120">
-        <v>22000</v>
-      </c>
-      <c r="F40" s="120">
-        <v>6600</v>
-      </c>
-      <c r="G40" s="41">
-        <v>6600</v>
-      </c>
-      <c r="H40" s="115">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I40" s="116"/>
-      <c r="J40" s="121"/>
-      <c r="K40" s="122"/>
-      <c r="L40" s="118"/>
-      <c r="M40" s="122"/>
-      <c r="N40" s="124"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A41" s="93"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="118"/>
-      <c r="D41" s="119">
-        <v>5000</v>
-      </c>
-      <c r="E41" s="120">
-        <v>22000</v>
-      </c>
-      <c r="F41" s="120">
-        <v>6600</v>
-      </c>
-      <c r="G41" s="41">
-        <v>6600</v>
-      </c>
-      <c r="H41" s="115">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="116"/>
-      <c r="J41" s="121"/>
-      <c r="K41" s="122"/>
-      <c r="L41" s="118"/>
-      <c r="M41" s="122"/>
-      <c r="N41" s="124"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A42" s="93"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="118"/>
-      <c r="D42" s="119">
-        <v>8000</v>
-      </c>
-      <c r="E42" s="120">
-        <v>22000</v>
-      </c>
-      <c r="F42" s="120">
-        <v>6600</v>
-      </c>
-      <c r="G42" s="41">
-        <v>6600</v>
-      </c>
-      <c r="H42" s="115">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I42" s="116"/>
-      <c r="J42" s="121"/>
-      <c r="K42" s="122"/>
-      <c r="L42" s="118"/>
-      <c r="M42" s="122"/>
-      <c r="N42" s="124"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A43" s="93"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="118"/>
-      <c r="D43" s="119">
-        <v>10000</v>
-      </c>
-      <c r="E43" s="120">
-        <v>22000</v>
-      </c>
-      <c r="F43" s="120">
-        <v>6600</v>
-      </c>
-      <c r="G43" s="41">
-        <v>6600</v>
-      </c>
-      <c r="H43" s="115">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="116"/>
-      <c r="J43" s="121"/>
-      <c r="K43" s="122"/>
-      <c r="L43" s="118"/>
-      <c r="M43" s="122"/>
-      <c r="N43" s="124"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A44" s="93"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="118"/>
-      <c r="D44" s="119">
-        <v>11000</v>
-      </c>
-      <c r="E44" s="120">
-        <v>22000</v>
-      </c>
-      <c r="F44" s="120">
-        <v>6600</v>
-      </c>
-      <c r="G44" s="41">
-        <v>6600</v>
-      </c>
-      <c r="H44" s="115">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="116"/>
-      <c r="J44" s="121"/>
-      <c r="K44" s="122"/>
-      <c r="L44" s="118"/>
-      <c r="M44" s="122"/>
-      <c r="N44" s="124"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A45" s="93"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="118"/>
-      <c r="D45" s="119" t="s">
-        <v>36</v>
-      </c>
-      <c r="E45" s="120">
-        <v>22000</v>
-      </c>
-      <c r="F45" s="120">
-        <v>11000</v>
-      </c>
-      <c r="G45" s="41">
-        <v>11000</v>
-      </c>
-      <c r="H45" s="115">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="116"/>
-      <c r="J45" s="121"/>
-      <c r="K45" s="122"/>
-      <c r="L45" s="118"/>
-      <c r="M45" s="122"/>
-      <c r="N45" s="124"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A46" s="93"/>
-      <c r="B46" s="32"/>
-      <c r="C46" s="118"/>
-      <c r="D46" s="119">
-        <v>750</v>
-      </c>
-      <c r="E46" s="120">
-        <v>22000</v>
-      </c>
-      <c r="F46" s="120">
-        <v>11000</v>
-      </c>
-      <c r="G46" s="41">
-        <v>11000</v>
-      </c>
-      <c r="H46" s="115">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="116"/>
-      <c r="J46" s="121"/>
-      <c r="K46" s="122"/>
-      <c r="L46" s="118"/>
-      <c r="M46" s="122"/>
-      <c r="N46" s="124"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A47" s="93"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="118"/>
-      <c r="D47" s="119">
-        <v>1000</v>
-      </c>
-      <c r="E47" s="120">
-        <v>22000</v>
-      </c>
-      <c r="F47" s="120">
-        <v>11000</v>
-      </c>
-      <c r="G47" s="41">
-        <v>11000</v>
-      </c>
-      <c r="H47" s="115">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="116"/>
-      <c r="J47" s="121"/>
-      <c r="K47" s="122"/>
-      <c r="L47" s="118"/>
-      <c r="M47" s="122"/>
-      <c r="N47" s="124"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A48" s="93"/>
-      <c r="B48" s="32"/>
-      <c r="C48" s="118"/>
-      <c r="D48" s="119">
-        <v>1500</v>
-      </c>
-      <c r="E48" s="120">
-        <v>22000</v>
-      </c>
-      <c r="F48" s="120">
-        <v>11000</v>
-      </c>
-      <c r="G48" s="41">
-        <v>11000</v>
-      </c>
-      <c r="H48" s="115">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I48" s="116"/>
-      <c r="J48" s="121"/>
-      <c r="K48" s="122"/>
-      <c r="L48" s="118"/>
-      <c r="M48" s="122"/>
-      <c r="N48" s="124"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A49" s="93"/>
-      <c r="B49" s="32"/>
-      <c r="C49" s="118"/>
-      <c r="D49" s="119">
-        <v>2000</v>
-      </c>
-      <c r="E49" s="120">
-        <v>22000</v>
-      </c>
-      <c r="F49" s="120">
-        <v>11000</v>
-      </c>
-      <c r="G49" s="41">
-        <v>11000</v>
-      </c>
-      <c r="H49" s="115">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I49" s="116"/>
-      <c r="J49" s="121"/>
-      <c r="K49" s="122"/>
-      <c r="L49" s="118"/>
-      <c r="M49" s="122"/>
-      <c r="N49" s="124"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A50" s="93"/>
-      <c r="B50" s="32"/>
-      <c r="C50" s="125"/>
-      <c r="D50" s="119">
-        <v>2500</v>
-      </c>
-      <c r="E50" s="120">
-        <v>22000</v>
-      </c>
-      <c r="F50" s="120">
-        <v>11000</v>
-      </c>
-      <c r="G50" s="41">
-        <v>11000</v>
-      </c>
-      <c r="H50" s="115">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I50" s="116"/>
-      <c r="J50" s="121"/>
-      <c r="K50" s="122"/>
-      <c r="L50" s="118"/>
-      <c r="M50" s="123"/>
-      <c r="N50" s="124"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A51" s="93"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="118"/>
-      <c r="D51" s="119">
-        <v>5000</v>
-      </c>
-      <c r="E51" s="120">
-        <v>22000</v>
-      </c>
-      <c r="F51" s="120">
-        <v>11000</v>
-      </c>
-      <c r="G51" s="41">
-        <v>11000</v>
-      </c>
-      <c r="H51" s="115">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I51" s="116"/>
-      <c r="J51" s="121"/>
-      <c r="K51" s="126"/>
-      <c r="L51" s="127"/>
-      <c r="M51" s="123"/>
-      <c r="N51" s="124"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A52" s="93"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="118"/>
-      <c r="D52" s="119">
-        <v>8000</v>
-      </c>
-      <c r="E52" s="120">
-        <v>22000</v>
-      </c>
-      <c r="F52" s="120">
-        <v>11000</v>
-      </c>
-      <c r="G52" s="41">
-        <v>11000</v>
-      </c>
-      <c r="H52" s="115">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I52" s="116"/>
-      <c r="J52" s="128"/>
-      <c r="K52" s="126"/>
-      <c r="L52" s="127"/>
-      <c r="M52" s="123"/>
-      <c r="N52" s="124"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A53" s="93"/>
-      <c r="B53" s="32"/>
-      <c r="C53" s="118"/>
-      <c r="D53" s="129">
-        <v>10000</v>
-      </c>
-      <c r="E53" s="130">
-        <v>22000</v>
-      </c>
-      <c r="F53" s="130">
-        <v>11000</v>
-      </c>
-      <c r="G53" s="131">
-        <v>11000</v>
-      </c>
-      <c r="H53" s="115">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I53" s="116"/>
-      <c r="J53" s="121"/>
-      <c r="K53" s="126"/>
-      <c r="L53" s="127"/>
-      <c r="M53" s="123"/>
-      <c r="N53" s="124"/>
-    </row>
-    <row r="54" spans="1:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="93"/>
-      <c r="B54" s="32"/>
-      <c r="C54" s="118"/>
-      <c r="D54" s="119">
-        <v>11000</v>
-      </c>
-      <c r="E54" s="132">
-        <v>22000</v>
-      </c>
-      <c r="F54" s="132">
-        <v>11000</v>
-      </c>
-      <c r="G54" s="133">
-        <v>11000</v>
-      </c>
-      <c r="H54" s="115">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I54" s="116"/>
-      <c r="J54" s="134"/>
-      <c r="K54" s="126"/>
-      <c r="L54" s="127"/>
-      <c r="M54" s="123"/>
-      <c r="N54" s="124"/>
-    </row>
-    <row r="55" spans="1:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="93"/>
-      <c r="B55" s="32"/>
-      <c r="C55" s="118"/>
-      <c r="D55" s="135" t="s">
-        <v>37</v>
-      </c>
-      <c r="E55" s="136"/>
-      <c r="F55" s="137" t="s">
-        <v>38</v>
-      </c>
-      <c r="G55" s="138"/>
-      <c r="H55" s="139">
-        <f>SUM(H25:H54)</f>
-        <v>0</v>
-      </c>
-      <c r="I55" s="140" t="s">
-        <v>39</v>
-      </c>
-      <c r="J55" s="141"/>
-      <c r="K55" s="126"/>
-      <c r="L55" s="127"/>
-      <c r="M55" s="123"/>
-      <c r="N55" s="124"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A56" s="93"/>
-      <c r="B56" s="32"/>
-      <c r="C56" s="118"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="142"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="74"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="126"/>
-      <c r="L56" s="127"/>
-      <c r="M56" s="123"/>
-      <c r="N56" s="124"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A57" s="93"/>
-      <c r="B57" s="32"/>
-      <c r="C57" s="118"/>
-      <c r="D57" s="118"/>
-      <c r="E57" s="142"/>
-      <c r="F57" s="118"/>
-      <c r="G57" s="118"/>
-      <c r="H57" s="118"/>
-      <c r="I57" s="32"/>
-      <c r="J57" s="118"/>
-      <c r="K57" s="143"/>
-      <c r="L57" s="144"/>
-      <c r="M57" s="123"/>
-      <c r="N57" s="124"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A58" s="93"/>
-      <c r="C58" s="118"/>
-      <c r="D58" s="118"/>
-      <c r="E58" s="142"/>
-      <c r="F58" s="118"/>
-      <c r="G58" s="118"/>
-      <c r="H58" s="118"/>
-      <c r="I58" s="32"/>
-      <c r="J58" s="118"/>
-      <c r="K58" s="143"/>
-      <c r="L58" s="144"/>
-      <c r="M58" s="32"/>
-      <c r="N58" s="124"/>
-    </row>
-    <row r="59" spans="1:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="82"/>
-      <c r="B59" s="145"/>
-      <c r="C59" s="146"/>
-      <c r="D59" s="146"/>
-      <c r="E59" s="146"/>
-      <c r="F59" s="147"/>
-      <c r="G59" s="147"/>
-      <c r="H59" s="146"/>
-      <c r="I59" s="146"/>
-      <c r="J59" s="147"/>
-      <c r="K59" s="147"/>
-      <c r="L59" s="49"/>
-      <c r="M59" s="145"/>
-      <c r="N59" s="124"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C60" s="148"/>
-      <c r="D60" s="148"/>
-      <c r="E60" s="148"/>
-      <c r="F60" s="149"/>
-      <c r="G60" s="149"/>
-      <c r="H60" s="148"/>
-      <c r="I60" s="148"/>
-      <c r="J60" s="149"/>
-      <c r="K60" s="149"/>
-    </row>
-    <row r="108" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="57"/>
-      <c r="B108" s="11"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3"/>
-      <c r="H108" s="3"/>
-      <c r="I108" s="11"/>
-      <c r="J108" s="3"/>
-      <c r="K108" s="151"/>
-      <c r="L108" s="150"/>
-      <c r="M108" s="11"/>
-      <c r="N108" s="3"/>
-      <c r="O108" s="4"/>
-    </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A471" s="57">
-        <f>MATCH("Total",$A$1:$A$470,0)-34</f>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="86"/>
+    </row>
+    <row r="68" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="54"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="88"/>
+      <c r="L68" s="87"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A431" s="54">
+        <f>MATCH("Total",$A$1:$A$430,0)-34</f>
         <v>-22</v>
       </c>
     </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A474" s="57">
-        <f>MATCH("Total",$A$1:$A$473,0)-34</f>
+    <row r="434" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A434" s="54">
+        <f>MATCH("Total",$A$1:$A$433,0)-34</f>
         <v>-22</v>
       </c>
     </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A475" s="57">
-        <f>MATCH("Total",$A$1:$A$474,0)-34</f>
+    <row r="435" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A435" s="54">
+        <f>MATCH("Total",$A$1:$A$434,0)-34</f>
         <v>-22</v>
       </c>
     </row>
-    <row r="477" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A477" s="57">
-        <f>MATCH("Total",$A$1:$A$476,0)-33</f>
+    <row r="437" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A437" s="54">
+        <f>MATCH("Total",$A$1:$A$436,0)-33</f>
         <v>-21</v>
       </c>
-      <c r="C477" s="3"/>
-      <c r="D477" s="3"/>
-      <c r="E477" s="3"/>
-      <c r="F477" s="3"/>
-      <c r="G477" s="3"/>
-      <c r="H477" s="3"/>
-      <c r="J477" s="3"/>
-      <c r="K477" s="151"/>
-      <c r="L477" s="150"/>
-      <c r="N477" s="3"/>
-      <c r="O477" s="4"/>
-    </row>
-    <row r="478" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A478" s="57">
-        <f>MATCH("Total",$A$1:$A$477,0)-34</f>
+      <c r="C437" s="2"/>
+      <c r="D437" s="2"/>
+      <c r="E437" s="2"/>
+      <c r="F437" s="2"/>
+      <c r="G437" s="2"/>
+      <c r="H437" s="2"/>
+      <c r="J437" s="2"/>
+      <c r="K437" s="88"/>
+      <c r="L437" s="87"/>
+      <c r="N437" s="2"/>
+      <c r="O437" s="3"/>
+    </row>
+    <row r="438" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A438" s="54">
+        <f>MATCH("Total",$A$1:$A$437,0)-34</f>
         <v>-22</v>
       </c>
-      <c r="C478" s="3"/>
-      <c r="D478" s="3"/>
-      <c r="E478" s="3"/>
-      <c r="F478" s="3"/>
-      <c r="G478" s="3"/>
-      <c r="H478" s="3"/>
-      <c r="J478" s="3"/>
-      <c r="K478" s="151"/>
-      <c r="L478" s="150"/>
-      <c r="N478" s="3"/>
-      <c r="O478" s="4"/>
-    </row>
-    <row r="479" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A479" s="57">
-        <f>MATCH("Total",$A$1:$A$478,0)-34</f>
+      <c r="C438" s="2"/>
+      <c r="D438" s="2"/>
+      <c r="E438" s="2"/>
+      <c r="F438" s="2"/>
+      <c r="G438" s="2"/>
+      <c r="H438" s="2"/>
+      <c r="J438" s="2"/>
+      <c r="K438" s="88"/>
+      <c r="L438" s="87"/>
+      <c r="N438" s="2"/>
+      <c r="O438" s="3"/>
+    </row>
+    <row r="439" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A439" s="54">
+        <f>MATCH("Total",$A$1:$A$438,0)-34</f>
         <v>-22</v>
       </c>
-      <c r="C479" s="3"/>
-      <c r="D479" s="3"/>
-      <c r="E479" s="3"/>
-      <c r="F479" s="3"/>
-      <c r="G479" s="3"/>
-      <c r="H479" s="3"/>
-      <c r="J479" s="3"/>
-      <c r="K479" s="151"/>
-      <c r="L479" s="150"/>
-      <c r="N479" s="3"/>
-      <c r="O479" s="4"/>
-    </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A480" s="57">
-        <f>MATCH("Total",$A$1:$A$479,0)-34</f>
+      <c r="C439" s="2"/>
+      <c r="D439" s="2"/>
+      <c r="E439" s="2"/>
+      <c r="F439" s="2"/>
+      <c r="G439" s="2"/>
+      <c r="H439" s="2"/>
+      <c r="J439" s="2"/>
+      <c r="K439" s="88"/>
+      <c r="L439" s="87"/>
+      <c r="N439" s="2"/>
+      <c r="O439" s="3"/>
+    </row>
+    <row r="440" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A440" s="54">
+        <f>MATCH("Total",$A$1:$A$439,0)-34</f>
         <v>-22</v>
       </c>
     </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A481" s="57">
-        <f>MATCH("Total",$A$1:$A$480,0)-34</f>
+    <row r="441" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A441" s="54">
+        <f>MATCH("Total",$A$1:$A$440,0)-34</f>
         <v>-22</v>
       </c>
     </row>
-    <row r="483" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A483" s="57">
-        <f>MATCH("Total",$A$1:$A$482,0)-33</f>
+    <row r="443" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A443" s="54">
+        <f>MATCH("Total",$A$1:$A$442,0)-33</f>
         <v>-21</v>
       </c>
-      <c r="C483" s="3"/>
-      <c r="D483" s="3"/>
-      <c r="E483" s="3"/>
-      <c r="F483" s="3"/>
-      <c r="G483" s="3"/>
-      <c r="H483" s="3"/>
-      <c r="J483" s="3"/>
-      <c r="K483" s="151"/>
-      <c r="L483" s="150"/>
-      <c r="N483" s="3"/>
-      <c r="O483" s="4"/>
-    </row>
-    <row r="484" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A484" s="57">
-        <f>MATCH("Total",$A$1:$A$483,0)-33</f>
+      <c r="C443" s="2"/>
+      <c r="D443" s="2"/>
+      <c r="E443" s="2"/>
+      <c r="F443" s="2"/>
+      <c r="G443" s="2"/>
+      <c r="H443" s="2"/>
+      <c r="J443" s="2"/>
+      <c r="K443" s="88"/>
+      <c r="L443" s="87"/>
+      <c r="N443" s="2"/>
+      <c r="O443" s="3"/>
+    </row>
+    <row r="444" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A444" s="54">
+        <f>MATCH("Total",$A$1:$A$443,0)-33</f>
         <v>-21</v>
       </c>
-      <c r="C484" s="3"/>
-      <c r="D484" s="3"/>
-      <c r="E484" s="3"/>
-      <c r="F484" s="3"/>
-      <c r="G484" s="3"/>
-      <c r="H484" s="3"/>
-      <c r="J484" s="3"/>
-      <c r="K484" s="151"/>
-      <c r="L484" s="150"/>
-      <c r="N484" s="3"/>
-      <c r="O484" s="4"/>
-    </row>
-    <row r="485" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A485" s="57">
-        <f>MATCH("Total",$A$1:$A$484,0)-34</f>
+      <c r="C444" s="2"/>
+      <c r="D444" s="2"/>
+      <c r="E444" s="2"/>
+      <c r="F444" s="2"/>
+      <c r="G444" s="2"/>
+      <c r="H444" s="2"/>
+      <c r="J444" s="2"/>
+      <c r="K444" s="88"/>
+      <c r="L444" s="87"/>
+      <c r="N444" s="2"/>
+      <c r="O444" s="3"/>
+    </row>
+    <row r="445" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A445" s="54">
+        <f>MATCH("Total",$A$1:$A$444,0)-34</f>
         <v>-22</v>
       </c>
-      <c r="C485" s="3"/>
-      <c r="D485" s="3"/>
-      <c r="E485" s="3"/>
-      <c r="F485" s="3"/>
-      <c r="G485" s="3"/>
-      <c r="H485" s="3"/>
-      <c r="J485" s="3"/>
-      <c r="K485" s="151"/>
-      <c r="L485" s="150"/>
-      <c r="N485" s="3"/>
-      <c r="O485" s="4"/>
-    </row>
-    <row r="486" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A486" s="57">
-        <f>MATCH("Total",$A$1:$A$485,0)-34</f>
+      <c r="C445" s="2"/>
+      <c r="D445" s="2"/>
+      <c r="E445" s="2"/>
+      <c r="F445" s="2"/>
+      <c r="G445" s="2"/>
+      <c r="H445" s="2"/>
+      <c r="J445" s="2"/>
+      <c r="K445" s="88"/>
+      <c r="L445" s="87"/>
+      <c r="N445" s="2"/>
+      <c r="O445" s="3"/>
+    </row>
+    <row r="446" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A446" s="54">
+        <f>MATCH("Total",$A$1:$A$445,0)-34</f>
         <v>-22</v>
       </c>
     </row>
-    <row r="487" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A487" s="57">
-        <f>MATCH("Total",$A$1:$A$486,0)-13</f>
+    <row r="447" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A447" s="54">
+        <f>MATCH("Total",$A$1:$A$446,0)-13</f>
         <v>-1</v>
       </c>
-      <c r="C487" s="3"/>
-      <c r="D487" s="3"/>
-      <c r="E487" s="3"/>
-      <c r="F487" s="3"/>
-      <c r="G487" s="3"/>
-      <c r="H487" s="3"/>
-      <c r="J487" s="3"/>
-      <c r="K487" s="151"/>
-      <c r="L487" s="150"/>
-      <c r="N487" s="3"/>
-      <c r="O487" s="4"/>
-    </row>
-    <row r="488" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A488" s="57">
-        <f>MATCH("Total",$A$1:$A$487,0)-33</f>
+      <c r="C447" s="2"/>
+      <c r="D447" s="2"/>
+      <c r="E447" s="2"/>
+      <c r="F447" s="2"/>
+      <c r="G447" s="2"/>
+      <c r="H447" s="2"/>
+      <c r="J447" s="2"/>
+      <c r="K447" s="88"/>
+      <c r="L447" s="87"/>
+      <c r="N447" s="2"/>
+      <c r="O447" s="3"/>
+    </row>
+    <row r="448" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A448" s="54">
+        <f>MATCH("Total",$A$1:$A$447,0)-33</f>
         <v>-21</v>
       </c>
-      <c r="C488" s="3"/>
-      <c r="D488" s="3"/>
-      <c r="E488" s="3"/>
-      <c r="F488" s="3"/>
-      <c r="G488" s="3"/>
-      <c r="H488" s="3"/>
-      <c r="J488" s="3"/>
-      <c r="K488" s="151"/>
-      <c r="L488" s="150"/>
-      <c r="N488" s="3"/>
-      <c r="O488" s="4"/>
-    </row>
-    <row r="489" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A489" s="57">
-        <f>MATCH("Total",$A$1:$A$488,0)-33</f>
+      <c r="C448" s="2"/>
+      <c r="D448" s="2"/>
+      <c r="E448" s="2"/>
+      <c r="F448" s="2"/>
+      <c r="G448" s="2"/>
+      <c r="H448" s="2"/>
+      <c r="J448" s="2"/>
+      <c r="K448" s="88"/>
+      <c r="L448" s="87"/>
+      <c r="N448" s="2"/>
+      <c r="O448" s="3"/>
+    </row>
+    <row r="449" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A449" s="54">
+        <f>MATCH("Total",$A$1:$A$448,0)-33</f>
         <v>-21</v>
       </c>
-      <c r="C489" s="3"/>
-      <c r="D489" s="3"/>
-      <c r="E489" s="3"/>
-      <c r="F489" s="3"/>
-      <c r="G489" s="3"/>
-      <c r="H489" s="3"/>
-      <c r="J489" s="3"/>
-      <c r="K489" s="151"/>
-      <c r="L489" s="150"/>
-      <c r="N489" s="3"/>
-      <c r="O489" s="4"/>
-    </row>
-    <row r="490" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A490" s="57">
-        <f>MATCH("Total",$A$1:$A$489,0)-33</f>
+      <c r="C449" s="2"/>
+      <c r="D449" s="2"/>
+      <c r="E449" s="2"/>
+      <c r="F449" s="2"/>
+      <c r="G449" s="2"/>
+      <c r="H449" s="2"/>
+      <c r="J449" s="2"/>
+      <c r="K449" s="88"/>
+      <c r="L449" s="87"/>
+      <c r="N449" s="2"/>
+      <c r="O449" s="3"/>
+    </row>
+    <row r="450" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A450" s="54">
+        <f>MATCH("Total",$A$1:$A$449,0)-33</f>
         <v>-21</v>
       </c>
-      <c r="C490" s="3"/>
-      <c r="D490" s="3"/>
-      <c r="E490" s="3"/>
-      <c r="F490" s="3"/>
-      <c r="G490" s="3"/>
-      <c r="H490" s="3"/>
-      <c r="J490" s="3"/>
-      <c r="K490" s="151"/>
-      <c r="L490" s="150"/>
-      <c r="N490" s="3"/>
-      <c r="O490" s="4"/>
-    </row>
-    <row r="491" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A491" s="57">
-        <f>MATCH("Total",$A$1:$A$490,0)-33</f>
+      <c r="C450" s="2"/>
+      <c r="D450" s="2"/>
+      <c r="E450" s="2"/>
+      <c r="F450" s="2"/>
+      <c r="G450" s="2"/>
+      <c r="H450" s="2"/>
+      <c r="J450" s="2"/>
+      <c r="K450" s="88"/>
+      <c r="L450" s="87"/>
+      <c r="N450" s="2"/>
+      <c r="O450" s="3"/>
+    </row>
+    <row r="451" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A451" s="54">
+        <f>MATCH("Total",$A$1:$A$450,0)-33</f>
         <v>-21</v>
       </c>
-      <c r="C491" s="3"/>
-      <c r="D491" s="3"/>
-      <c r="E491" s="3"/>
-      <c r="F491" s="3"/>
-      <c r="G491" s="3"/>
-      <c r="H491" s="3"/>
-      <c r="J491" s="3"/>
-      <c r="K491" s="151"/>
-      <c r="L491" s="150"/>
-      <c r="N491" s="3"/>
-      <c r="O491" s="4"/>
-    </row>
-    <row r="492" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A492" s="57">
-        <f>MATCH("Total",$A$1:$A$491,0)-13</f>
+      <c r="C451" s="2"/>
+      <c r="D451" s="2"/>
+      <c r="E451" s="2"/>
+      <c r="F451" s="2"/>
+      <c r="G451" s="2"/>
+      <c r="H451" s="2"/>
+      <c r="J451" s="2"/>
+      <c r="K451" s="88"/>
+      <c r="L451" s="87"/>
+      <c r="N451" s="2"/>
+      <c r="O451" s="3"/>
+    </row>
+    <row r="452" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A452" s="54">
+        <f>MATCH("Total",$A$1:$A$451,0)-13</f>
         <v>-1</v>
       </c>
-      <c r="C492" s="3"/>
-      <c r="D492" s="3"/>
-      <c r="E492" s="3"/>
-      <c r="F492" s="3"/>
-      <c r="G492" s="3"/>
-      <c r="H492" s="3"/>
-      <c r="J492" s="3"/>
-      <c r="K492" s="151"/>
-      <c r="L492" s="150"/>
-      <c r="N492" s="3"/>
-      <c r="O492" s="4"/>
-    </row>
-    <row r="493" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A493" s="57">
-        <f>MATCH("Total",$A$1:$A$492,0)-13</f>
+      <c r="C452" s="2"/>
+      <c r="D452" s="2"/>
+      <c r="E452" s="2"/>
+      <c r="F452" s="2"/>
+      <c r="G452" s="2"/>
+      <c r="H452" s="2"/>
+      <c r="J452" s="2"/>
+      <c r="K452" s="88"/>
+      <c r="L452" s="87"/>
+      <c r="N452" s="2"/>
+      <c r="O452" s="3"/>
+    </row>
+    <row r="453" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A453" s="54">
+        <f>MATCH("Total",$A$1:$A$452,0)-13</f>
         <v>-1</v>
       </c>
-      <c r="C493" s="3"/>
-      <c r="D493" s="3"/>
-      <c r="E493" s="3"/>
-      <c r="F493" s="3"/>
-      <c r="G493" s="3"/>
-      <c r="H493" s="3"/>
-      <c r="J493" s="3"/>
-      <c r="K493" s="151"/>
-      <c r="L493" s="150"/>
-      <c r="N493" s="3"/>
-      <c r="O493" s="4"/>
-    </row>
-    <row r="494" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A494" s="57">
-        <f>MATCH("Total",$A$1:$A$493,0)-33</f>
+      <c r="C453" s="2"/>
+      <c r="D453" s="2"/>
+      <c r="E453" s="2"/>
+      <c r="F453" s="2"/>
+      <c r="G453" s="2"/>
+      <c r="H453" s="2"/>
+      <c r="J453" s="2"/>
+      <c r="K453" s="88"/>
+      <c r="L453" s="87"/>
+      <c r="N453" s="2"/>
+      <c r="O453" s="3"/>
+    </row>
+    <row r="454" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A454" s="54">
+        <f>MATCH("Total",$A$1:$A$453,0)-33</f>
         <v>-21</v>
       </c>
-      <c r="C494" s="3"/>
-      <c r="D494" s="3"/>
-      <c r="E494" s="3"/>
-      <c r="F494" s="3"/>
-      <c r="G494" s="3"/>
-      <c r="H494" s="3"/>
-      <c r="J494" s="3"/>
-      <c r="K494" s="151"/>
-      <c r="L494" s="150"/>
-      <c r="N494" s="3"/>
-      <c r="O494" s="4"/>
-    </row>
-    <row r="495" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A495" s="57">
-        <f>MATCH("Total",$A$1:$A$494,0)-13</f>
+      <c r="C454" s="2"/>
+      <c r="D454" s="2"/>
+      <c r="E454" s="2"/>
+      <c r="F454" s="2"/>
+      <c r="G454" s="2"/>
+      <c r="H454" s="2"/>
+      <c r="J454" s="2"/>
+      <c r="K454" s="88"/>
+      <c r="L454" s="87"/>
+      <c r="N454" s="2"/>
+      <c r="O454" s="3"/>
+    </row>
+    <row r="455" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A455" s="54">
+        <f>MATCH("Total",$A$1:$A$454,0)-13</f>
         <v>-1</v>
       </c>
-      <c r="C495" s="3"/>
-      <c r="D495" s="3"/>
-      <c r="E495" s="3"/>
-      <c r="F495" s="3"/>
-      <c r="G495" s="3"/>
-      <c r="H495" s="3"/>
-      <c r="J495" s="3"/>
-      <c r="K495" s="151"/>
-      <c r="L495" s="150"/>
-      <c r="N495" s="3"/>
-      <c r="O495" s="4"/>
-    </row>
-    <row r="496" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A496" s="57">
-        <f>MATCH("Total",$A$1:$A$495,0)-13</f>
+      <c r="C455" s="2"/>
+      <c r="D455" s="2"/>
+      <c r="E455" s="2"/>
+      <c r="F455" s="2"/>
+      <c r="G455" s="2"/>
+      <c r="H455" s="2"/>
+      <c r="J455" s="2"/>
+      <c r="K455" s="88"/>
+      <c r="L455" s="87"/>
+      <c r="N455" s="2"/>
+      <c r="O455" s="3"/>
+    </row>
+    <row r="456" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A456" s="54">
+        <f>MATCH("Total",$A$1:$A$455,0)-13</f>
         <v>-1</v>
       </c>
-      <c r="C496" s="3"/>
-      <c r="D496" s="3"/>
-      <c r="E496" s="3"/>
-      <c r="F496" s="3"/>
-      <c r="G496" s="3"/>
-      <c r="H496" s="3"/>
-      <c r="J496" s="3"/>
-      <c r="K496" s="151"/>
-      <c r="L496" s="150"/>
-      <c r="N496" s="3"/>
-      <c r="O496" s="4"/>
-    </row>
-    <row r="497" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A497" s="57">
-        <f>MATCH("Total",$A$1:$A$496,0)-13</f>
+      <c r="C456" s="2"/>
+      <c r="D456" s="2"/>
+      <c r="E456" s="2"/>
+      <c r="F456" s="2"/>
+      <c r="G456" s="2"/>
+      <c r="H456" s="2"/>
+      <c r="J456" s="2"/>
+      <c r="K456" s="88"/>
+      <c r="L456" s="87"/>
+      <c r="N456" s="2"/>
+      <c r="O456" s="3"/>
+    </row>
+    <row r="457" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A457" s="54">
+        <f>MATCH("Total",$A$1:$A$456,0)-13</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="498" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A498" s="57">
-        <f>MATCH("Total",$A$1:$A$497,0)-13</f>
+    <row r="458" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A458" s="54">
+        <f>MATCH("Total",$A$1:$A$457,0)-13</f>
         <v>-1</v>
       </c>
-      <c r="C498" s="3"/>
-      <c r="D498" s="3"/>
-      <c r="E498" s="3"/>
-      <c r="F498" s="3"/>
-      <c r="G498" s="3"/>
-      <c r="H498" s="3"/>
-      <c r="J498" s="3"/>
-      <c r="K498" s="151"/>
-      <c r="L498" s="150"/>
-      <c r="N498" s="3"/>
-      <c r="O498" s="4"/>
-    </row>
-    <row r="499" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A499" s="57">
-        <f>MATCH("Total",$A$1:$A$498,0)-13</f>
+      <c r="C458" s="2"/>
+      <c r="D458" s="2"/>
+      <c r="E458" s="2"/>
+      <c r="F458" s="2"/>
+      <c r="G458" s="2"/>
+      <c r="H458" s="2"/>
+      <c r="J458" s="2"/>
+      <c r="K458" s="88"/>
+      <c r="L458" s="87"/>
+      <c r="N458" s="2"/>
+      <c r="O458" s="3"/>
+    </row>
+    <row r="459" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A459" s="54">
+        <f>MATCH("Total",$A$1:$A$458,0)-13</f>
         <v>-1</v>
       </c>
-      <c r="C499" s="3"/>
-      <c r="D499" s="3"/>
-      <c r="E499" s="3"/>
-      <c r="F499" s="3"/>
-      <c r="G499" s="3"/>
-      <c r="H499" s="3"/>
-      <c r="J499" s="3"/>
-      <c r="K499" s="151"/>
-      <c r="L499" s="150"/>
-      <c r="N499" s="3"/>
-      <c r="O499" s="4"/>
-    </row>
-    <row r="500" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A500" s="57">
-        <f>MATCH("Total",$A$1:$A$499,0)-13</f>
+      <c r="C459" s="2"/>
+      <c r="D459" s="2"/>
+      <c r="E459" s="2"/>
+      <c r="F459" s="2"/>
+      <c r="G459" s="2"/>
+      <c r="H459" s="2"/>
+      <c r="J459" s="2"/>
+      <c r="K459" s="88"/>
+      <c r="L459" s="87"/>
+      <c r="N459" s="2"/>
+      <c r="O459" s="3"/>
+    </row>
+    <row r="460" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A460" s="54">
+        <f>MATCH("Total",$A$1:$A$459,0)-13</f>
         <v>-1</v>
       </c>
-      <c r="C500" s="3"/>
-      <c r="D500" s="3"/>
-      <c r="E500" s="3"/>
-      <c r="F500" s="3"/>
-      <c r="G500" s="3"/>
-      <c r="H500" s="3"/>
-      <c r="J500" s="3"/>
-      <c r="K500" s="151"/>
-      <c r="L500" s="150"/>
-      <c r="N500" s="3"/>
-      <c r="O500" s="4"/>
-    </row>
-    <row r="501" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A501" s="57">
-        <f>MATCH("Total",$A$1:$A$500,0)-13</f>
+      <c r="C460" s="2"/>
+      <c r="D460" s="2"/>
+      <c r="E460" s="2"/>
+      <c r="F460" s="2"/>
+      <c r="G460" s="2"/>
+      <c r="H460" s="2"/>
+      <c r="J460" s="2"/>
+      <c r="K460" s="88"/>
+      <c r="L460" s="87"/>
+      <c r="N460" s="2"/>
+      <c r="O460" s="3"/>
+    </row>
+    <row r="461" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A461" s="54">
+        <f>MATCH("Total",$A$1:$A$460,0)-13</f>
         <v>-1</v>
       </c>
-      <c r="C501" s="3"/>
-      <c r="D501" s="3"/>
-      <c r="E501" s="3"/>
-      <c r="F501" s="3"/>
-      <c r="G501" s="3"/>
-      <c r="H501" s="3"/>
-      <c r="J501" s="3"/>
-      <c r="K501" s="151"/>
-      <c r="L501" s="150"/>
-      <c r="N501" s="3"/>
-      <c r="O501" s="4"/>
-    </row>
-    <row r="502" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A502" s="57">
-        <f>MATCH("Total",$A$1:$A$501,0)-13</f>
+      <c r="C461" s="2"/>
+      <c r="D461" s="2"/>
+      <c r="E461" s="2"/>
+      <c r="F461" s="2"/>
+      <c r="G461" s="2"/>
+      <c r="H461" s="2"/>
+      <c r="J461" s="2"/>
+      <c r="K461" s="88"/>
+      <c r="L461" s="87"/>
+      <c r="N461" s="2"/>
+      <c r="O461" s="3"/>
+    </row>
+    <row r="462" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A462" s="54">
+        <f>MATCH("Total",$A$1:$A$461,0)-13</f>
         <v>-1</v>
       </c>
-      <c r="C502" s="3"/>
-      <c r="D502" s="3"/>
-      <c r="E502" s="3"/>
-      <c r="F502" s="3"/>
-      <c r="G502" s="3"/>
-      <c r="H502" s="3"/>
-      <c r="J502" s="3"/>
-      <c r="K502" s="151"/>
-      <c r="L502" s="150"/>
-      <c r="N502" s="3"/>
-      <c r="O502" s="4"/>
-    </row>
-    <row r="503" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A503" s="57">
-        <f>MATCH("Total",$A$1:$A$502,0)-33</f>
+      <c r="C462" s="2"/>
+      <c r="D462" s="2"/>
+      <c r="E462" s="2"/>
+      <c r="F462" s="2"/>
+      <c r="G462" s="2"/>
+      <c r="H462" s="2"/>
+      <c r="J462" s="2"/>
+      <c r="K462" s="88"/>
+      <c r="L462" s="87"/>
+      <c r="N462" s="2"/>
+      <c r="O462" s="3"/>
+    </row>
+    <row r="463" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A463" s="54">
+        <f>MATCH("Total",$A$1:$A$462,0)-33</f>
         <v>-21</v>
       </c>
-      <c r="C503" s="3"/>
-      <c r="D503" s="3"/>
-      <c r="E503" s="3"/>
-      <c r="F503" s="3"/>
-      <c r="G503" s="3"/>
-      <c r="H503" s="3"/>
-      <c r="J503" s="3"/>
-      <c r="K503" s="151"/>
-      <c r="L503" s="150"/>
-      <c r="N503" s="3"/>
-      <c r="O503" s="4"/>
-    </row>
-    <row r="504" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A504" s="57">
-        <f>MATCH("Total",$A$1:$A$503,0)-33</f>
+      <c r="C463" s="2"/>
+      <c r="D463" s="2"/>
+      <c r="E463" s="2"/>
+      <c r="F463" s="2"/>
+      <c r="G463" s="2"/>
+      <c r="H463" s="2"/>
+      <c r="J463" s="2"/>
+      <c r="K463" s="88"/>
+      <c r="L463" s="87"/>
+      <c r="N463" s="2"/>
+      <c r="O463" s="3"/>
+    </row>
+    <row r="464" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A464" s="54">
+        <f>MATCH("Total",$A$1:$A$463,0)-33</f>
         <v>-21</v>
       </c>
-      <c r="C504" s="3"/>
-      <c r="D504" s="3"/>
-      <c r="E504" s="3"/>
-      <c r="F504" s="3"/>
-      <c r="G504" s="3"/>
-      <c r="H504" s="3"/>
-      <c r="J504" s="3"/>
-      <c r="K504" s="151"/>
-      <c r="L504" s="150"/>
-      <c r="N504" s="3"/>
-      <c r="O504" s="4"/>
-    </row>
-    <row r="505" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A505" s="57">
-        <f>MATCH("Total",$A$1:$A$504,0)-33</f>
+      <c r="C464" s="2"/>
+      <c r="D464" s="2"/>
+      <c r="E464" s="2"/>
+      <c r="F464" s="2"/>
+      <c r="G464" s="2"/>
+      <c r="H464" s="2"/>
+      <c r="J464" s="2"/>
+      <c r="K464" s="88"/>
+      <c r="L464" s="87"/>
+      <c r="N464" s="2"/>
+      <c r="O464" s="3"/>
+    </row>
+    <row r="465" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A465" s="54">
+        <f>MATCH("Total",$A$1:$A$464,0)-33</f>
         <v>-21</v>
       </c>
-      <c r="C505" s="3"/>
-      <c r="D505" s="3"/>
-      <c r="E505" s="3"/>
-      <c r="F505" s="3"/>
-      <c r="G505" s="3"/>
-      <c r="H505" s="3"/>
-      <c r="J505" s="3"/>
-      <c r="K505" s="151"/>
-      <c r="L505" s="150"/>
-      <c r="N505" s="3"/>
-      <c r="O505" s="4"/>
-    </row>
-    <row r="508" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A508" s="57">
-        <f>MATCH("Total",$A$1:$A$507,0)-33</f>
+      <c r="C465" s="2"/>
+      <c r="D465" s="2"/>
+      <c r="E465" s="2"/>
+      <c r="F465" s="2"/>
+      <c r="G465" s="2"/>
+      <c r="H465" s="2"/>
+      <c r="J465" s="2"/>
+      <c r="K465" s="88"/>
+      <c r="L465" s="87"/>
+      <c r="N465" s="2"/>
+      <c r="O465" s="3"/>
+    </row>
+    <row r="468" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A468" s="54">
+        <f>MATCH("Total",$A$1:$A$467,0)-33</f>
         <v>-21</v>
       </c>
-      <c r="C508" s="3"/>
-      <c r="D508" s="3"/>
-      <c r="E508" s="3"/>
-      <c r="F508" s="3"/>
-      <c r="G508" s="3"/>
-      <c r="H508" s="3"/>
-      <c r="J508" s="3"/>
-      <c r="K508" s="151"/>
-      <c r="L508" s="150"/>
-      <c r="N508" s="3"/>
-      <c r="O508" s="4"/>
+      <c r="C468" s="2"/>
+      <c r="D468" s="2"/>
+      <c r="E468" s="2"/>
+      <c r="F468" s="2"/>
+      <c r="G468" s="2"/>
+      <c r="H468" s="2"/>
+      <c r="J468" s="2"/>
+      <c r="K468" s="88"/>
+      <c r="L468" s="87"/>
+      <c r="N468" s="2"/>
+      <c r="O468" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="11">
